--- a/ULS_Nandhini/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Nandhini/TestData/IjaraJSPaths.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\82fc137e-87a1-43b1-bcdb-ceb097330717\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\5e6a0b6a-6333-44df-abea-f3ee26840408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D12B3B-3DF8-4167-80D6-C543D3F1831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA652432-B6F8-4AF8-BE59-504720EA3BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="11520" windowHeight="7875"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="11520" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="CustomerDebt" sheetId="6" r:id="rId6"/>
     <sheet name="addressdetails_WebElements" sheetId="7" r:id="rId7"/>
     <sheet name="iJarah_CommonElements" sheetId="8" r:id="rId8"/>
+    <sheet name="Repayment" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="527">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1407,17 +1408,219 @@
   </si>
   <si>
     <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]').textContent</t>
+  </si>
+  <si>
+    <t>moduleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(5) &gt; ion-select')</t>
+  </si>
+  <si>
+    <t>moduleNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('#ion-overlay-1 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(3)')</t>
+  </si>
+  <si>
+    <t>inboxButton</t>
+  </si>
+  <si>
+    <t>document.querySelector("#menu-content &gt; app-tabs &gt; kub-header &gt; ion-header &gt; ion-toolbar &gt; section &gt; ion-list &gt; ion-item:nth-child(2) &gt; div &gt; div &gt; ion-icon").shadowRoot.querySelector("div &gt; svg")</t>
+  </si>
+  <si>
+    <t>searchButton</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; button")</t>
+  </si>
+  <si>
+    <t>inboxData</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input')</t>
+  </si>
+  <si>
+    <t>actionButton</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1-table &gt; tbody &gt; tr &gt; td.tableuser-inbox &gt; button")</t>
+  </si>
+  <si>
+    <t>repaymentModeSection</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg7")</t>
+  </si>
+  <si>
+    <t>editIcon</t>
+  </si>
+  <si>
+    <t>repaymentModeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Repayment Mode.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>accountHolderNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Holder Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>accountTypeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Type.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>accountNumberField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Number.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>bankNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Name.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>branchNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Branch.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>escCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ECS CODE.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>saveButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-save"')</t>
+  </si>
+  <si>
+    <t>helpButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[ng-reflect-name="information-circle-outline"')</t>
+  </si>
+  <si>
+    <t>closeButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[aria-label="Close"')</t>
+  </si>
+  <si>
+    <t>successMessagePopup</t>
+  </si>
+  <si>
+    <t>document.querySelector("#toast-container &gt; div")</t>
+  </si>
+  <si>
+    <t>repaymentModeMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Repayment Mode.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>repaymentModeListbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Repayment Mode.TOOLTIP"]+ion-select').getAttribute('aria-haspopup')</t>
+  </si>
+  <si>
+    <t>codeInputField</t>
+  </si>
+  <si>
+    <t>document.getElementsByName("ion-input-13")</t>
+  </si>
+  <si>
+    <t>accountNumberInputField</t>
+  </si>
+  <si>
+    <t>document.getElementsByName("ion-input-12")</t>
+  </si>
+  <si>
+    <t>specialCharacterErrorPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Number.TOOLTIP"]').parentElement.parentElement.nextElementSibling.querySelector('ion-badge')</t>
+  </si>
+  <si>
+    <t>requiredFieldErrorPopup</t>
+  </si>
+  <si>
+    <t>viewButton</t>
+  </si>
+  <si>
+    <t>repaymentModeField_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Repayment Mode.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>accountTypeField_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Type.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>accountNumberField_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Number.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>bankNameField_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Name.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>branchNameField_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Bank Branch.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>escCode_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ECS CODE.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>accountcurrency_attribute</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Account Currency.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>accountHolderNameField_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> document.querySelector('ion-label[ng-reflect-text="Account Holder Name.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>StatusBar_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> document.querySelector('ion-toggle[ng-reflect-mode="md"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-&quot;&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;-$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1425,8 +1628,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1434,6 +1639,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1454,9 +1671,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1469,22 +1695,29 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1531,58 +1764,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="2"/>
-    <cellStyle name="Excel Built-in Normal 2" xfId="3"/>
-    <cellStyle name="Heading" xfId="4"/>
-    <cellStyle name="Heading1" xfId="5"/>
+  <cellStyles count="35">
+    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="5"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="6"/>
+    <cellStyle name="Excel Built-in Normal 3" xfId="7"/>
+    <cellStyle name="Excel Built-in Normal 4" xfId="8"/>
+    <cellStyle name="Excel Built-in Normal 5" xfId="9"/>
+    <cellStyle name="Excel Built-in Normal 6" xfId="10"/>
+    <cellStyle name="Excel Built-in Normal 7" xfId="11"/>
+    <cellStyle name="Heading" xfId="12"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading1" xfId="13"/>
+    <cellStyle name="Heading1 1" xfId="14"/>
+    <cellStyle name="Heading1 2" xfId="15"/>
+    <cellStyle name="Heading1 3" xfId="16"/>
+    <cellStyle name="Heading1 4" xfId="17"/>
+    <cellStyle name="Heading1 5" xfId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="6"/>
-    <cellStyle name="Result2" xfId="7"/>
-    <cellStyle name="Result2 1" xfId="8"/>
-    <cellStyle name="Result2 2" xfId="9"/>
+    <cellStyle name="Result" xfId="19"/>
+    <cellStyle name="Result 1" xfId="20"/>
+    <cellStyle name="Result 2" xfId="21"/>
+    <cellStyle name="Result 3" xfId="22"/>
+    <cellStyle name="Result 4" xfId="23"/>
+    <cellStyle name="Result 5" xfId="24"/>
+    <cellStyle name="Result2" xfId="25"/>
+    <cellStyle name="Result2 1" xfId="26"/>
+    <cellStyle name="Result2 2" xfId="27"/>
+    <cellStyle name="Result2 3" xfId="28"/>
+    <cellStyle name="Result2 4" xfId="29"/>
+    <cellStyle name="Result2 5" xfId="30"/>
+    <cellStyle name="Result2 6" xfId="31"/>
+    <cellStyle name="Result2 7" xfId="32"/>
+    <cellStyle name="Result2 8" xfId="33"/>
+    <cellStyle name="Result2 9" xfId="34"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1900,9 +2206,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="133.625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="8.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="148.125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="8.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1970,7 +2276,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="3.1126" bottom="3.1126" header="2.7189000000000001" footer="2.7189000000000001"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1984,9 +2290,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="47.625" style="4" customWidth="1"/>
-    <col min="3" max="1024" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.75" style="4" customWidth="1"/>
+    <col min="3" max="1024" width="11.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2478,25 +2784,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.1232" bottom="1.1232" header="0.78739999999999999" footer="0.78739999999999999"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="7.2146000000000008" bottom="7.2146000000000008" header="0.78739999999999999" footer="0.78739999999999999"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:XFD50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.625" customWidth="1"/>
-    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="36.25" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46" style="13" customWidth="1"/>
+    <col min="3" max="1024" width="9.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2507,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>136</v>
       </c>
@@ -2547,7 +2854,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>146</v>
       </c>
@@ -2627,7 +2934,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>166</v>
       </c>
@@ -2643,7 +2950,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>170</v>
       </c>
@@ -2651,7 +2958,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>172</v>
       </c>
@@ -2691,7 +2998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>182</v>
       </c>
@@ -2715,7 +3022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>188</v>
       </c>
@@ -2723,7 +3030,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>190</v>
       </c>
@@ -2739,7 +3046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>194</v>
       </c>
@@ -2755,7 +3062,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>198</v>
       </c>
@@ -2779,7 +3086,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>204</v>
       </c>
@@ -2795,7 +3102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>208</v>
       </c>
@@ -2803,7 +3110,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>210</v>
       </c>
@@ -2815,110 +3122,111 @@
       <c r="A40" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="7.8857999999999997" bottom="7.8857999999999997" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:XFD14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="1" max="1" width="60" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="13" customWidth="1"/>
+    <col min="3" max="1024" width="9.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2929,116 +3237,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.39410000000000006" bottom="0.39410000000000006" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="7.8857999999999997" bottom="7.8857999999999997" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3051,9 +3359,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.625" style="2" customWidth="1"/>
-    <col min="3" max="1024" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="14" customWidth="1"/>
+    <col min="3" max="1024" width="11.875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3065,467 +3373,467 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="15" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="14" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="14" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="14" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="14" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="14" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="14" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="14" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="14" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="14" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="14" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="14" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="14" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.1232" bottom="1.1232" header="0.78739999999999999" footer="0.78739999999999999"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="7.2146000000000008" bottom="7.2146000000000008" header="0.78739999999999999" footer="0.78739999999999999"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3538,13 +3846,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
-    <col min="3" max="1024" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="14" customWidth="1"/>
+    <col min="3" max="1024" width="11.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>372</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3552,203 +3860,203 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="14" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="14" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="14" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="14" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="14" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="14" t="s">
         <v>408</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.1232" bottom="1.1232" header="0.78739999999999999" footer="0.78739999999999999"/>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="7.2146000000000008" bottom="7.2146000000000008" header="0.78739999999999999" footer="0.78739999999999999"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3761,9 +4069,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="102.375" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="8.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="69" style="1" customWidth="1"/>
+    <col min="2" max="2" width="113.625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="8.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -4131,7 +4439,7 @@
       <c r="B47" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="3.1126" bottom="3.1126" header="2.7189000000000001" footer="2.7189000000000001"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -4145,9 +4453,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="118.25" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="8.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="131.125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="8.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -4239,8 +4547,327 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="3.1126" bottom="3.1126" header="2.7189000000000001" footer="2.7189000000000001"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="186" style="21" customWidth="1"/>
+    <col min="3" max="1024" width="11.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="4.0763999999999996" bottom="4.0763999999999996" header="0.78739999999999999" footer="0.78739999999999999"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>